--- a/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.01607915339653283</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06150710514555347</v>
+        <v>0.06150710514555346</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02932415623759922</v>
@@ -697,7 +697,7 @@
         <v>0.01611797243893553</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04903748733586101</v>
+        <v>0.049037487335861</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02408536084207539</v>
+        <v>0.02317802192592613</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01349182618127972</v>
+        <v>0.01272949948192055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008484287924569124</v>
+        <v>0.008054013418430855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01927915041867406</v>
+        <v>0.02023156695769748</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01786779387296866</v>
+        <v>0.01801516763092798</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01665208974675594</v>
+        <v>0.0158653262684346</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008472926146777341</v>
+        <v>0.00853629790020091</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04953276774990189</v>
+        <v>0.04993876189365627</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02343067341674436</v>
+        <v>0.02308266561378307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01721022007520569</v>
+        <v>0.01709909872758951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01057794083924161</v>
+        <v>0.01065620413899431</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04074045068352874</v>
+        <v>0.04017159037719959</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04474746196080756</v>
+        <v>0.04487295953328017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0339930016340705</v>
+        <v>0.03313039657961336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02744214598945406</v>
+        <v>0.02885426460018335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04848909630646441</v>
+        <v>0.04861839452531533</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03549579088701618</v>
+        <v>0.03594461509480222</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03377287432262871</v>
+        <v>0.03235727763632675</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02744356959333166</v>
+        <v>0.02585343950208827</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07556730417765567</v>
+        <v>0.07700430257235635</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03694332763248557</v>
+        <v>0.03706530874124168</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03060840949431377</v>
+        <v>0.03037785334979068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02404006248176368</v>
+        <v>0.02333809226717316</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0592020131672878</v>
+        <v>0.0599164466519046</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.008918274193442112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02529206814382962</v>
+        <v>0.02529206814382961</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01054256626254642</v>
@@ -821,7 +821,7 @@
         <v>0.009962561713039594</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02610276336846852</v>
+        <v>0.02610276336846851</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.008807348632585501</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003912251096260041</v>
+        <v>0.003897360032987588</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01036444037164372</v>
+        <v>0.009938963145116012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005041478946118645</v>
+        <v>0.005314205686273513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01890839338838203</v>
+        <v>0.01871918155487325</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006305391124747359</v>
+        <v>0.006196463483598646</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01129925135825433</v>
+        <v>0.01094839548586274</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006219726541761951</v>
+        <v>0.006218645689362289</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0204550371643681</v>
+        <v>0.02050848196686703</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005847157447647749</v>
+        <v>0.005962543359973152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0119112911876561</v>
+        <v>0.01219368388763682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006607284634201357</v>
+        <v>0.006937550713766147</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02099634442876361</v>
+        <v>0.02113220091916005</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01219049999509543</v>
+        <v>0.01209067440991841</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02174140772791071</v>
+        <v>0.02116249751524163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01477375066279426</v>
+        <v>0.01519816654707012</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03353012800834569</v>
+        <v>0.03366473026488456</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01677393589038877</v>
+        <v>0.01658430067726569</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02403946159478195</v>
+        <v>0.02502289623690558</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01508022892652287</v>
+        <v>0.01481914878480767</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03372197830147033</v>
+        <v>0.03406997331268584</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01274164630581481</v>
+        <v>0.01289687281148936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.020653019888446</v>
+        <v>0.02082785907208059</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01289318915499734</v>
+        <v>0.01310646393356002</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03058353335759002</v>
+        <v>0.03120639401519203</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001935179169316301</v>
+        <v>0.001925895438525742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004475425956921937</v>
+        <v>0.004335458362002081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001753159322431683</v>
+        <v>0.00172020328557871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01031155275506094</v>
+        <v>0.009508305136202936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004143463198853401</v>
+        <v>0.004119020197408967</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01952544144518918</v>
+        <v>0.01851237394912983</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01100771715791149</v>
+        <v>0.01134874048556229</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003871501035258113</v>
+        <v>0.003934665287450696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01450802498749308</v>
+        <v>0.01444326566982073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001786443565263397</v>
+        <v>0.001805885435805893</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01222227523382465</v>
+        <v>0.0123687447247421</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01998591127784104</v>
+        <v>0.02072064626659333</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03350217615956443</v>
+        <v>0.03463728287646404</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01663645098773139</v>
+        <v>0.01631755693325873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02970603577621596</v>
+        <v>0.02868480269093426</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02290825677346858</v>
+        <v>0.0228492989489033</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05728449190406344</v>
+        <v>0.05713968830080066</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01237601604594203</v>
+        <v>0.01150190370655065</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02723593313490209</v>
+        <v>0.02676518207933294</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0174101967976542</v>
+        <v>0.01724646035333771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03721016812307155</v>
+        <v>0.03725903940901123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01027346259003359</v>
+        <v>0.01190015706415665</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02498349973923128</v>
+        <v>0.02554777850177583</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01044525230650052</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0286045957685901</v>
+        <v>0.02860459576859011</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01234516456615176</v>
+        <v>0.01255596940908251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007151425269948389</v>
+        <v>0.006917850121032647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01943668556551411</v>
+        <v>0.01976113538184352</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01678833339482708</v>
+        <v>0.01678392522727842</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007599944215843659</v>
+        <v>0.007413532690525719</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02782984538526652</v>
+        <v>0.02745500990505909</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01616788226011403</v>
+        <v>0.01599000553844195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008066542056640376</v>
+        <v>0.00807137796084159</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02492918526730225</v>
+        <v>0.02525134764269555</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02187501332965622</v>
+        <v>0.02170359576210175</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0147018701239717</v>
+        <v>0.01432896034294039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03050545134105195</v>
+        <v>0.03090095473316198</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0273826343000038</v>
+        <v>0.02742176076048794</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01499384223994068</v>
+        <v>0.01490307946981982</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03770058015057615</v>
+        <v>0.03769273469102404</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02330438144278832</v>
+        <v>0.02333528795792904</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01303283072375463</v>
+        <v>0.0132434576200791</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03212730257274359</v>
+        <v>0.03274453379802023</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24849</v>
+        <v>23913</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13150</v>
+        <v>12407</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6400</v>
+        <v>6076</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11154</v>
+        <v>11705</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23498</v>
+        <v>23692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22277</v>
+        <v>21225</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8428</v>
+        <v>8491</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40718</v>
+        <v>41052</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>54988</v>
+        <v>54171</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>39798</v>
+        <v>39541</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18501</v>
+        <v>18638</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>57060</v>
+        <v>56263</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46167</v>
+        <v>46296</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33131</v>
+        <v>32290</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20701</v>
+        <v>21766</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28052</v>
+        <v>28127</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46681</v>
+        <v>47271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45181</v>
+        <v>43287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27297</v>
+        <v>25715</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>62119</v>
+        <v>63300</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>86700</v>
+        <v>86986</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>70780</v>
+        <v>70247</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42046</v>
+        <v>40818</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82916</v>
+        <v>83917</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6625</v>
+        <v>6600</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20355</v>
+        <v>19520</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10468</v>
+        <v>11034</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42176</v>
+        <v>41754</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10011</v>
+        <v>9838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19862</v>
+        <v>19245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12367</v>
+        <v>12365</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44416</v>
+        <v>44532</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19185</v>
+        <v>19564</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44331</v>
+        <v>45382</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26857</v>
+        <v>28199</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>92425</v>
+        <v>93023</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20644</v>
+        <v>20475</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42699</v>
+        <v>41562</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30676</v>
+        <v>31557</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>74791</v>
+        <v>75091</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26632</v>
+        <v>26330</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42257</v>
+        <v>43985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29984</v>
+        <v>29465</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73224</v>
+        <v>73979</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41806</v>
+        <v>42316</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>76866</v>
+        <v>77516</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52407</v>
+        <v>53274</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>134627</v>
+        <v>137369</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2153</v>
+        <v>2086</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7338</v>
+        <v>6766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8955</v>
+        <v>8490</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8089</v>
+        <v>8340</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3979</v>
+        <v>4044</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13635</v>
+        <v>13574</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1958</v>
+        <v>1979</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17679</v>
+        <v>17891</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11020</v>
+        <v>11426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16121</v>
+        <v>16667</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9098</v>
+        <v>8924</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21138</v>
+        <v>20412</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10914</v>
+        <v>10886</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26272</v>
+        <v>26206</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6796</v>
+        <v>6316</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20015</v>
+        <v>19669</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17895</v>
+        <v>17726</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>34971</v>
+        <v>35017</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11260</v>
+        <v>13043</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36138</v>
+        <v>36954</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42218</v>
+        <v>42939</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24155</v>
+        <v>23366</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>68430</v>
+        <v>69573</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59670</v>
+        <v>59654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26844</v>
+        <v>26185</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>103758</v>
+        <v>102361</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>112755</v>
+        <v>111514</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>55738</v>
+        <v>55771</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>180711</v>
+        <v>183047</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74808</v>
+        <v>74222</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49657</v>
+        <v>48398</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>107400</v>
+        <v>108792</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97324</v>
+        <v>97463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52960</v>
+        <v>52639</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>140559</v>
+        <v>140530</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>162525</v>
+        <v>162741</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>90053</v>
+        <v>91509</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>232890</v>
+        <v>237365</v>
       </c>
     </row>
     <row r="20">
